--- a/data/trans_dic/P2A_psíq_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,59</t>
+          <t>0,48; 2,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,89</t>
+          <t>1,26; 3,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,74</t>
+          <t>0,63; 3,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,56</t>
+          <t>1,02; 5,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,57</t>
+          <t>0,29; 2,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,71</t>
+          <t>1,4; 4,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,9</t>
+          <t>0,41; 1,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,87</t>
+          <t>0,94; 2,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,37</t>
+          <t>0,16; 1,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,66</t>
+          <t>1,6; 3,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,71</t>
+          <t>0,22; 2,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,97</t>
+          <t>1,0; 4,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,02</t>
+          <t>0,24; 2,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,26</t>
+          <t>0,77; 3,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,29</t>
+          <t>0,25; 2,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,57</t>
+          <t>0,53; 3,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,71</t>
+          <t>1,32; 3,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,76</t>
+          <t>0,34; 1,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,13</t>
+          <t>0,8; 2,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,56</t>
+          <t>0,53; 2,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,92</t>
+          <t>1,31; 2,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,48</t>
+          <t>0,17; 1,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,57</t>
+          <t>1,47; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,84</t>
+          <t>0,19; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,66</t>
+          <t>0,31; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,02</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,69</t>
+          <t>0,36; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,29</t>
+          <t>0,71; 4,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,52</t>
+          <t>0,26; 1,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,66</t>
+          <t>1,29; 3,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,55</t>
+          <t>0,28; 1,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,49</t>
+          <t>0,44; 2,51</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,7</t>
+          <t>0,51; 1,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,01</t>
+          <t>0,69; 2,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,07</t>
+          <t>0,25; 1,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,86</t>
+          <t>1,28; 2,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,81</t>
+          <t>1,41; 3,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,44</t>
+          <t>0,84; 2,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 58,74</t>
+          <t>2,16; 59,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,63</t>
+          <t>0,73; 1,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,35</t>
+          <t>1,15; 2,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,5</t>
+          <t>0,6; 1,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 39,47</t>
+          <t>1,96; 37,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,32</t>
+          <t>0,23; 2,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,59</t>
+          <t>0,58; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,49</t>
+          <t>0,97; 3,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,67</t>
+          <t>1,58; 4,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,49</t>
+          <t>0,16; 1,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,22</t>
+          <t>1,86; 4,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,33</t>
+          <t>1,66; 4,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,7</t>
+          <t>1,74; 3,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,39</t>
+          <t>0,25; 1,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,3</t>
+          <t>1,53; 3,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,32</t>
+          <t>1,65; 3,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,55</t>
+          <t>1,96; 3,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,89</t>
+          <t>0,89; 4,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,09</t>
+          <t>1,85; 7,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,79</t>
+          <t>0,68; 4,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,67</t>
+          <t>1,11; 7,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,1</t>
+          <t>0,71; 2,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,83</t>
+          <t>1,16; 2,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,46</t>
+          <t>0,75; 2,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,04</t>
+          <t>2,52; 4,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,2</t>
+          <t>0,97; 2,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,41</t>
+          <t>1,61; 3,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,23</t>
+          <t>0,84; 2,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,88</t>
+          <t>2,47; 4,85</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,33</t>
+          <t>0,62; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,45</t>
+          <t>1,41; 2,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,4</t>
+          <t>0,62; 1,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,67</t>
+          <t>1,47; 2,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,56</t>
+          <t>0,83; 1,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,61</t>
+          <t>1,64; 2,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,16</t>
+          <t>1,21; 2,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 26,55</t>
+          <t>2,58; 25,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,34</t>
+          <t>0,82; 1,31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,33</t>
+          <t>1,66; 2,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,62</t>
+          <t>1,03; 1,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 16,03</t>
+          <t>2,27; 15,03</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11438</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5358</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7867</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11734</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7377</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13137</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23171</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6226</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2079; 11923</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5139</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6345; 19824</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1926; 11317</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3193; 16567</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>995; 8311</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6283; 20663</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3190; 14954</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7032; 21580</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1204; 10777</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15224; 34837</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3320</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10035</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7583</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5809</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12132</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9570</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16586</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>813; 10300</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4191; 19849</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>891; 10961</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3462; 15305</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>932; 7820</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6356</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1964; 13125</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5067; 13904</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2538; 13742</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6052; 22489</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3994; 18989</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10917; 24658</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2928</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16977</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3842</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8301</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2943</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3202</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4862</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19920</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4823</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>909; 8070</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9237; 29163</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9725</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2102; 17194</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6786</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>933; 7957</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5332</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1185; 7235</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1871; 10491</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11475; 31568</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1909; 11108</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3709; 20957</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11875</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13456</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18205</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12125</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>223863</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22011</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>31661</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>18891</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>244563</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6368; 20673</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8009; 24176</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2820; 13464</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13292; 30058</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5018; 17955</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10845; 28193</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6947; 21064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21120; 585908</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14271; 32041</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22189; 45507</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11826; 28639</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>39435; 754498</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6963</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11273</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12862</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3139</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22088</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20451</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22248</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5939</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29051</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31724</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35110</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>820; 8285</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2983; 13884</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6041; 20647</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7529; 21323</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>897; 9614</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14179; 33850</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12258; 31723</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14598; 29697</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2266; 11966</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>19440; 41677</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22422; 47244</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25838; 48135</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6798</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10811</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5173</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7597</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15979</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21015</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14710</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26962</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22777</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>31826</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>19883</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>34559</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2639; 13815</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4939; 19562</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1959; 11588</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2667; 18628</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8814; 25861</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12871; 32260</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8135; 24739</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19149; 37910</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14953; 34786</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22153; 46035</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11555; 30421</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24752; 48585</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>29741</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>63511</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31901</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>68481</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>39476</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>74215</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>57288</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>297011</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>69216</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>137726</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>89190</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>365492</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20339; 42908</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>48357; 83350</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20916; 45716</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>49553; 87545</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28003; 54426</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>58073; 96167</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>42674; 75702</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>92426; 908487</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>54551; 87263</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>115392; 164530</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>70925; 108298</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>157509; 1045243</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2A_psíq_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
